--- a/mbs-perturbation/chatty/MLP/chatty-mlp-results.xlsx
+++ b/mbs-perturbation/chatty/MLP/chatty-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.3157894736842106</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1119565217391305</v>
+        <v>0.7374999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01082251082251084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1565217391304348</v>
+        <v>0.8855072463768116</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6159420289855072</v>
+        <v>0.9434782608695652</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3790485601355167</v>
+        <v>0.9132971014492753</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/MLP/chatty-mlp-results.xlsx
+++ b/mbs-perturbation/chatty/MLP/chatty-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3157894736842106</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7374999999999999</v>
+        <v>0.4379807692307692</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8745192307692307</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8855072463768116</v>
+        <v>0.9922705314009662</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.8966183574879227</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9434782608695652</v>
+        <v>0.9980676328502415</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06315789473684211</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9132971014492753</v>
+        <v>0.8398913043478261</v>
       </c>
     </row>
   </sheetData>
